--- a/KasirUML.xlsx
+++ b/KasirUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthfeew\Documents\kasir-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996FE8C6-4970-49EE-9894-08EE46F23E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD11A38E-5B3E-4D3B-AF2B-424422E24972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A8E1DBEA-5B59-4C2F-BC74-718872DA8232}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>USER</t>
   </si>
@@ -156,9 +156,6 @@
     <t>is_hutang</t>
   </si>
   <si>
-    <t>is_refund</t>
-  </si>
-  <si>
     <t>is_counted</t>
   </si>
   <si>
@@ -178,6 +175,18 @@
   </si>
   <si>
     <t>INVENTARIS</t>
+  </si>
+  <si>
+    <t>nama_transaksi</t>
+  </si>
+  <si>
+    <t>REFUND</t>
+  </si>
+  <si>
+    <t>alasan</t>
+  </si>
+  <si>
+    <t>is_refunded</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,9 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964AD688-D193-479B-B86A-BB9B6BE495AE}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,14 +563,15 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -584,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -598,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -609,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -620,26 +637,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -647,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
@@ -659,10 +676,13 @@
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -679,13 +699,16 @@
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -693,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -707,9 +730,12 @@
       <c r="N15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -728,17 +754,17 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
@@ -748,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
@@ -756,13 +782,13 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
@@ -772,20 +798,23 @@
       <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/KasirUML.xlsx
+++ b/KasirUML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthfeew\Documents\kasir-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD11A38E-5B3E-4D3B-AF2B-424422E24972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6E69E-C507-4A86-A7CD-5270A7EED06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A8E1DBEA-5B59-4C2F-BC74-718872DA8232}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>USER</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>is_refunded</t>
+  </si>
+  <si>
+    <t>x40</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x200</t>
+  </si>
+  <si>
+    <t>plg</t>
+  </si>
+  <si>
+    <t>harga_pelanggan</t>
+  </si>
+  <si>
+    <t>PELANGGAN</t>
+  </si>
+  <si>
+    <t>pelanggan_id</t>
   </si>
 </sst>
 </file>
@@ -202,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,10 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964AD688-D193-479B-B86A-BB9B6BE495AE}">
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +609,9 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -592,6 +623,9 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -603,6 +637,9 @@
       <c r="F4" t="s">
         <v>47</v>
       </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -614,6 +651,9 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -625,6 +665,9 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -721,8 +764,8 @@
       <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" t="s">
-        <v>20</v>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>38</v>
@@ -748,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -756,8 +799,11 @@
       <c r="N16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>29</v>
       </c>
@@ -768,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -777,12 +823,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
@@ -791,31 +837,76 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="J21" s="2" t="s">
-        <v>13</v>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>2750</v>
       </c>
     </row>
   </sheetData>
